--- a/Test/Lawnmower/T2/Sensors_data_1000034.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000034.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.985805333875229</v>
+        <v>0.9879169902763646</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0008353394741742933</v>
+        <v>0.000470960767447226</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09214393011410804</v>
+        <v>0.09949251447377594</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9449232002326334</v>
+        <v>0.9251888141211906</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001583963215586485</v>
+        <v>0.002431445571982499</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06786756948872286</v>
+        <v>0.06642789966139234</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3213000239797809</v>
+        <v>0.4364542087645507</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03537194257437636</v>
+        <v>0.02433323235370452</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4500054704453959</v>
+        <v>0.006942619306013864</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -550,18 +550,68 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9934851702113618</v>
+        <v>0.3764688004191749</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000272802489807418</v>
+        <v>0.02569800851297173</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01410408607978642</v>
+        <v>0.02872870967822638</v>
       </c>
       <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9888409664059908</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0004378926046494701</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01961485618543696</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G5" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9405341589199943</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002111747476927062</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.05860883898119346</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
